--- a/excel/PEDIDO YA DNI NO APROBADO.xlsx
+++ b/excel/PEDIDO YA DNI NO APROBADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E2A16A-AD9C-4AAA-B62A-685226466226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB3DC5-55DB-4450-8669-B2568B2AD131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TELEFONO</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>AX100</t>
-  </si>
-  <si>
-    <t>vendedor</t>
-  </si>
-  <si>
-    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -332,7 +326,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -350,9 +344,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -386,9 +378,7 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -400,9 +390,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/PEDIDO YA DNI NO APROBADO.xlsx
+++ b/excel/PEDIDO YA DNI NO APROBADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB3DC5-55DB-4450-8669-B2568B2AD131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87DF0A-D542-4D17-8EC4-A4DEFEF53AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TELEFONO</t>
   </si>
@@ -31,16 +31,10 @@
     <t>MODELO</t>
   </si>
   <si>
-    <t>GUSTAVO GLUNZ</t>
-  </si>
-  <si>
-    <t>BLITZ 110</t>
-  </si>
-  <si>
-    <t>GUSTAVO GOMEZ VILAFANE</t>
-  </si>
-  <si>
     <t>AX100</t>
+  </si>
+  <si>
+    <t>GUSTAVO GOMEZ VILLAFANE</t>
   </si>
 </sst>
 </file>
@@ -322,11 +316,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -370,27 +364,15 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>5491161405589</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
